--- a/Supplementary_Table_3.xlsx
+++ b/Supplementary_Table_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2523DF1B-61C3-4E70-8F74-DD7010232BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE0FF88-FF22-498C-9C66-7CEEA540A76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="870" windowWidth="13980" windowHeight="9530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="84">
   <si>
     <t>A*02:03</t>
   </si>
@@ -87,6 +87,198 @@
   <si>
     <t>Replicate 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*02:02</t>
+  </si>
+  <si>
+    <t>A*02:05</t>
+  </si>
+  <si>
+    <t>A*02:07</t>
+  </si>
+  <si>
+    <t>A*02:11</t>
+  </si>
+  <si>
+    <t>A*02:12</t>
+  </si>
+  <si>
+    <t>A*02:16</t>
+  </si>
+  <si>
+    <t>A*02:17</t>
+  </si>
+  <si>
+    <t>A*03:02</t>
+  </si>
+  <si>
+    <t>A*11:01</t>
+  </si>
+  <si>
+    <t>A*11:02</t>
+  </si>
+  <si>
+    <t>A*23:01</t>
+  </si>
+  <si>
+    <t>A*24:02</t>
+  </si>
+  <si>
+    <t>A*25:01</t>
+  </si>
+  <si>
+    <t>A*26:01</t>
+  </si>
+  <si>
+    <t>A*26:03</t>
+  </si>
+  <si>
+    <t>A*29:02</t>
+  </si>
+  <si>
+    <t>A*30:01</t>
+  </si>
+  <si>
+    <t>A*30:02</t>
+  </si>
+  <si>
+    <t>A*31:01</t>
+  </si>
+  <si>
+    <t>A*32:01</t>
+  </si>
+  <si>
+    <t>A*32:07</t>
+  </si>
+  <si>
+    <t>A*33:01</t>
+  </si>
+  <si>
+    <t>A*66:01</t>
+  </si>
+  <si>
+    <t>A*68:01</t>
+  </si>
+  <si>
+    <t>A*68:02</t>
+  </si>
+  <si>
+    <t>A*68:23</t>
+  </si>
+  <si>
+    <t>A*69:01</t>
+  </si>
+  <si>
+    <t>A*74:01</t>
+  </si>
+  <si>
+    <t>A*80:01</t>
+  </si>
+  <si>
+    <t>B*07:02</t>
+  </si>
+  <si>
+    <t>B*08:02</t>
+  </si>
+  <si>
+    <t>B*14:01</t>
+  </si>
+  <si>
+    <t>B*14:02</t>
+  </si>
+  <si>
+    <t>B*15:02</t>
+  </si>
+  <si>
+    <t>B*15:03</t>
+  </si>
+  <si>
+    <t>B*15:09</t>
+  </si>
+  <si>
+    <t>B*15:17</t>
+  </si>
+  <si>
+    <t>B*15:42</t>
+  </si>
+  <si>
+    <t>B*18:01</t>
+  </si>
+  <si>
+    <t>B*27:05</t>
+  </si>
+  <si>
+    <t>B*27:20</t>
+  </si>
+  <si>
+    <t>B*35:03</t>
+  </si>
+  <si>
+    <t>B*37:01</t>
+  </si>
+  <si>
+    <t>B*38:01</t>
+  </si>
+  <si>
+    <t>B*39:01</t>
+  </si>
+  <si>
+    <t>B*40:01</t>
+  </si>
+  <si>
+    <t>B*40:02</t>
+  </si>
+  <si>
+    <t>B*40:13</t>
+  </si>
+  <si>
+    <t>B*42:01</t>
+  </si>
+  <si>
+    <t>B*42:02</t>
+  </si>
+  <si>
+    <t>B*44:03</t>
+  </si>
+  <si>
+    <t>B*45:01</t>
+  </si>
+  <si>
+    <t>B*46:01</t>
+  </si>
+  <si>
+    <t>B*48:01</t>
+  </si>
+  <si>
+    <t>B*51:01</t>
+  </si>
+  <si>
+    <t>B*52:01</t>
+  </si>
+  <si>
+    <t>B*53:01</t>
+  </si>
+  <si>
+    <t>B*54:01</t>
+  </si>
+  <si>
+    <t>B*57:02</t>
+  </si>
+  <si>
+    <t>B*57:03</t>
+  </si>
+  <si>
+    <t>B*58:01</t>
+  </si>
+  <si>
+    <t>B*58:02</t>
+  </si>
+  <si>
+    <t>B*73:01</t>
+  </si>
+  <si>
+    <t>B*81:01</t>
   </si>
 </sst>
 </file>
@@ -414,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F32"/>
+      <selection activeCell="K3" sqref="K3:N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -485,37 +677,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.55395499919938596</v>
+        <v>0.553954999</v>
       </c>
       <c r="C3">
-        <v>0.836857280878189</v>
+        <v>0.83685728100000001</v>
       </c>
       <c r="D3">
-        <v>0.77526476395620103</v>
+        <v>0.775264764</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.55408173131544103</v>
+        <v>0.55408173100000002</v>
       </c>
       <c r="H3">
-        <v>0.83805910248799598</v>
+        <v>0.838059102</v>
       </c>
       <c r="I3">
-        <v>0.77508526296894598</v>
+        <v>0.77508526300000002</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
       </c>
       <c r="L3">
-        <v>0.55129574097818201</v>
+        <v>0.55129574100000001</v>
       </c>
       <c r="M3">
-        <v>0.83308984232100403</v>
+        <v>0.83308984200000002</v>
       </c>
       <c r="N3">
-        <v>0.77257224914736999</v>
+        <v>0.77257224899999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -523,458 +715,2829 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.88999887267134303</v>
+        <v>0.88999887300000002</v>
       </c>
       <c r="C4">
-        <v>0.96115941145066397</v>
+        <v>0.96115941100000002</v>
       </c>
       <c r="D4">
-        <v>0.893057770996601</v>
+        <v>0.89305777099999994</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0.88911265352526703</v>
+        <v>0.88911265399999995</v>
       </c>
       <c r="H4">
-        <v>0.96053572341821203</v>
+        <v>0.96053572300000001</v>
       </c>
       <c r="I4">
-        <v>0.89146265344337305</v>
+        <v>0.89146265300000005</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.88928148470499002</v>
+        <v>0.88928148500000004</v>
       </c>
       <c r="M4">
-        <v>0.96076261511843297</v>
+        <v>0.96076261500000004</v>
       </c>
       <c r="N4">
-        <v>0.89076912407240405</v>
+        <v>0.89076912399999997</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>0.88483933060240605</v>
+        <v>0.885357493</v>
       </c>
       <c r="C5">
-        <v>0.95458838844606597</v>
+        <v>0.94392897899999995</v>
       </c>
       <c r="D5">
-        <v>0.87069649373314295</v>
+        <v>0.86040914599999996</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0.88123379179105099</v>
+        <v>0.88659486899999995</v>
       </c>
       <c r="H5">
-        <v>0.95290715665247505</v>
+        <v>0.94479628400000004</v>
       </c>
       <c r="I5">
-        <v>0.86958591147072795</v>
+        <v>0.85800240699999997</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>0.88217241068739505</v>
+        <v>0.88609137299999996</v>
       </c>
       <c r="M5">
-        <v>0.95330260251608501</v>
+        <v>0.94431724399999994</v>
       </c>
       <c r="N5">
-        <v>0.86847532920831305</v>
+        <v>0.85968712400000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.81622293764422804</v>
+        <v>0.88483933100000001</v>
       </c>
       <c r="C6">
-        <v>0.91320684570926702</v>
+        <v>0.95458838800000001</v>
       </c>
       <c r="D6">
-        <v>0.839374555792466</v>
+        <v>0.87069649400000004</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.81589370143405804</v>
+        <v>0.88123379199999996</v>
       </c>
       <c r="H6">
-        <v>0.91268744379852296</v>
+        <v>0.95290715699999995</v>
       </c>
       <c r="I6">
-        <v>0.83919687277896204</v>
+        <v>0.86958591100000004</v>
       </c>
       <c r="K6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.81360955402753798</v>
+        <v>0.88217241099999999</v>
       </c>
       <c r="M6">
-        <v>0.91149797780226305</v>
+        <v>0.95330260300000003</v>
       </c>
       <c r="N6">
-        <v>0.83777540867093103</v>
+        <v>0.86847532900000002</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>0.90890642946451405</v>
+        <v>0.92803708100000004</v>
       </c>
       <c r="C7">
-        <v>0.98943447856491296</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="D7">
-        <v>0.95184590690208604</v>
+        <v>0.97333333300000002</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>0.91049318231253296</v>
+        <v>0.93346397299999995</v>
       </c>
       <c r="H7">
-        <v>0.98950204384986895</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="I7">
-        <v>0.95264847512038497</v>
+        <v>0.97333333300000002</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>0.90502458299523103</v>
+        <v>0.93207581299999998</v>
       </c>
       <c r="M7">
-        <v>0.98904597817641304</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="N7">
-        <v>0.95264847512038497</v>
+        <v>0.97333333300000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.82661892716521701</v>
+        <v>0.81622293800000001</v>
       </c>
       <c r="C8">
-        <v>0.93282092080942902</v>
+        <v>0.91320684600000002</v>
       </c>
       <c r="D8">
-        <v>0.858644185240789</v>
+        <v>0.83937455599999999</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.83252644622138305</v>
+        <v>0.81589370100000003</v>
       </c>
       <c r="H8">
-        <v>0.93665684418045903</v>
+        <v>0.91268744400000001</v>
       </c>
       <c r="I8">
-        <v>0.86395657697193595</v>
+        <v>0.83919687300000001</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.83092947263051398</v>
+        <v>0.81360955400000001</v>
       </c>
       <c r="M8">
-        <v>0.93569222730720503</v>
+        <v>0.91149797799999999</v>
       </c>
       <c r="N8">
-        <v>0.86233976209723895</v>
+        <v>0.83777540900000003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>0.86718904751533499</v>
+        <v>0.84892509900000002</v>
       </c>
       <c r="C9">
-        <v>0.97187797902764494</v>
+        <v>0.91927899700000004</v>
       </c>
       <c r="D9">
-        <v>0.91020999275887005</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>0.87323530158139295</v>
+        <v>0.84508937399999995</v>
       </c>
       <c r="H9">
-        <v>0.97432724223873501</v>
+        <v>0.92006269600000001</v>
       </c>
       <c r="I9">
-        <v>0.91383055756697995</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L9">
-        <v>0.87145338201437605</v>
+        <v>0.84678533899999997</v>
       </c>
       <c r="M9">
-        <v>0.97313850253253198</v>
+        <v>0.91849529799999996</v>
       </c>
       <c r="N9">
-        <v>0.90586531498913803</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0.91758192100895397</v>
+        <v>0.91433179399999998</v>
       </c>
       <c r="C10">
-        <v>0.97778195488721797</v>
+        <v>0.97587996700000001</v>
       </c>
       <c r="D10">
-        <v>0.908242612752721</v>
+        <v>0.89769585299999999</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>0.91593951865877399</v>
+        <v>0.91444340499999999</v>
       </c>
       <c r="H10">
-        <v>0.97576441102756895</v>
+        <v>0.97446605900000005</v>
       </c>
       <c r="I10">
-        <v>0.90979782270606502</v>
+        <v>0.89400921700000002</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L10">
-        <v>0.91663306386685595</v>
+        <v>0.91462266599999997</v>
       </c>
       <c r="M10">
-        <v>0.97705513784461095</v>
+        <v>0.97597810399999996</v>
       </c>
       <c r="N10">
-        <v>0.91601866251943997</v>
+        <v>0.89032258099999995</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0.58244119468460898</v>
+        <v>0.93767737799999995</v>
       </c>
       <c r="C11">
-        <v>0.84710775912022496</v>
+        <v>0.98205936900000002</v>
       </c>
       <c r="D11">
-        <v>0.65006331785563498</v>
+        <v>0.951817413</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0.55906018839593696</v>
+        <v>0.93570362699999998</v>
       </c>
       <c r="H11">
-        <v>0.83466412301624904</v>
+        <v>0.98405565900000003</v>
       </c>
       <c r="I11">
-        <v>0.65006331785563498</v>
+        <v>0.95350802999999995</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L11">
-        <v>0.58113121807283896</v>
+        <v>0.93798119400000002</v>
       </c>
       <c r="M11">
-        <v>0.84424214294401401</v>
+        <v>0.98285343199999997</v>
       </c>
       <c r="N11">
-        <v>0.65048543689320304</v>
+        <v>0.951817413</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>0.74264841662993197</v>
+        <v>0.94513090200000005</v>
       </c>
       <c r="C12">
-        <v>0.91335937657209298</v>
+        <v>0.98224578200000001</v>
       </c>
       <c r="D12">
-        <v>0.776381909547738</v>
+        <v>0.95331161799999997</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>0.73815852167984297</v>
+        <v>0.93827514300000003</v>
       </c>
       <c r="H12">
-        <v>0.91328810833482199</v>
+        <v>0.98292393300000003</v>
       </c>
       <c r="I12">
-        <v>0.75895100502512503</v>
+        <v>0.95012679600000005</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L12">
-        <v>0.73916340736827502</v>
+        <v>0.94457661100000001</v>
       </c>
       <c r="M12">
-        <v>0.91231106765639203</v>
+        <v>0.98290279199999997</v>
       </c>
       <c r="N12">
-        <v>0.75675251256281395</v>
+        <v>0.95439739400000001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.78060661796013797</v>
+        <v>0.48901083000000001</v>
       </c>
       <c r="C13">
-        <v>0.91142736655227197</v>
+        <v>0.737839735</v>
       </c>
       <c r="D13">
-        <v>0.81267067176406305</v>
+        <v>0.53468208100000003</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>0.78059945631364303</v>
+        <v>0.94382615400000003</v>
       </c>
       <c r="H13">
-        <v>0.91071071805208104</v>
+        <v>0.97988651599999999</v>
       </c>
       <c r="I13">
-        <v>0.81403604587656997</v>
+        <v>0.95656894699999995</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L13">
-        <v>0.77988673644970996</v>
+        <v>0.47819740500000002</v>
       </c>
       <c r="M13">
-        <v>0.91109449012055599</v>
+        <v>0.72821181400000001</v>
       </c>
       <c r="N13">
-        <v>0.81075914800655302</v>
+        <v>0.53757225399999997</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>0.89612027541265504</v>
+        <v>0.90890642899999996</v>
       </c>
       <c r="C14">
-        <v>0.97227239762531203</v>
+        <v>0.98943447900000003</v>
       </c>
       <c r="D14">
-        <v>0.91948215977265502</v>
+        <v>0.95184590700000005</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>0.89739674063096297</v>
+        <v>0.46506109699999998</v>
       </c>
       <c r="H14">
-        <v>0.97278005464480799</v>
+        <v>0.71928592899999999</v>
       </c>
       <c r="I14">
-        <v>0.92106094095358304</v>
+        <v>0.53468208100000003</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>0.89912425243279503</v>
+        <v>0.90502458299999999</v>
       </c>
       <c r="M14">
-        <v>0.97290064426904099</v>
+        <v>0.98904597800000005</v>
       </c>
       <c r="N14">
-        <v>0.91853489106409802</v>
+        <v>0.95264847500000005</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.82661892699999995</v>
+      </c>
+      <c r="C15">
+        <v>0.93282092100000003</v>
+      </c>
+      <c r="D15">
+        <v>0.85864418499999995</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>0.91049318199999996</v>
+      </c>
+      <c r="H15">
+        <v>0.98950204399999997</v>
+      </c>
+      <c r="I15">
+        <v>0.95264847500000005</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.83092947299999997</v>
+      </c>
+      <c r="M15">
+        <v>0.93569222699999999</v>
+      </c>
+      <c r="N15">
+        <v>0.86233976199999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.46193822600000001</v>
+      </c>
+      <c r="C16">
+        <v>0.70414201200000004</v>
+      </c>
+      <c r="D16">
+        <v>0.69230769199999997</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0.83252644600000003</v>
+      </c>
+      <c r="H16">
+        <v>0.93665684400000004</v>
+      </c>
+      <c r="I16">
+        <v>0.86395657699999995</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>0.44437153600000001</v>
+      </c>
+      <c r="M16">
+        <v>0.69230769199999997</v>
+      </c>
+      <c r="N16">
+        <v>0.65384615400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.87122173400000003</v>
+      </c>
+      <c r="C17">
+        <v>0.95074614199999996</v>
+      </c>
+      <c r="D17">
+        <v>0.84425949199999994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>0.47425884600000001</v>
+      </c>
+      <c r="H17">
+        <v>0.73372781099999995</v>
+      </c>
+      <c r="I17">
+        <v>0.65384615400000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <v>0.86714526000000003</v>
+      </c>
+      <c r="M17">
+        <v>0.94895618599999998</v>
+      </c>
+      <c r="N17">
+        <v>0.83878691100000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0.89958441899999997</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>0.571428571</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>0.87104587</v>
+      </c>
+      <c r="H18">
+        <v>0.95050684299999999</v>
+      </c>
+      <c r="I18">
+        <v>0.84106715300000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>0.90893399399999997</v>
+      </c>
+      <c r="M18">
+        <v>0.875</v>
+      </c>
+      <c r="N18">
+        <v>0.571428571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0.89418383099999998</v>
+      </c>
+      <c r="C19">
+        <v>0.96232773699999996</v>
+      </c>
+      <c r="D19">
+        <v>0.90406976699999997</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0.90126783799999999</v>
+      </c>
+      <c r="H19">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I19">
+        <v>0.571428571</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>0.89326434099999996</v>
+      </c>
+      <c r="M19">
+        <v>0.96229600900000001</v>
+      </c>
+      <c r="N19">
+        <v>0.89970930199999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0.86680835599999995</v>
+      </c>
+      <c r="C20">
+        <v>0.95333931599999999</v>
+      </c>
+      <c r="D20">
+        <v>0.877214567</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>0.89213425400000002</v>
+      </c>
+      <c r="H20">
+        <v>0.962005628</v>
+      </c>
+      <c r="I20">
+        <v>0.89752907000000004</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>0.86506954000000003</v>
+      </c>
+      <c r="M20">
+        <v>0.951419397</v>
+      </c>
+      <c r="N20">
+        <v>0.876476378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.86718904799999996</v>
+      </c>
+      <c r="C21">
+        <v>0.97187797899999995</v>
+      </c>
+      <c r="D21">
+        <v>0.91020999300000005</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21">
+        <v>0.86682086899999999</v>
+      </c>
+      <c r="H21">
+        <v>0.95295187599999998</v>
+      </c>
+      <c r="I21">
+        <v>0.88065944900000004</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0.871453382</v>
+      </c>
+      <c r="M21">
+        <v>0.97313850300000004</v>
+      </c>
+      <c r="N21">
+        <v>0.905865315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0.84268813600000003</v>
+      </c>
+      <c r="C22">
+        <v>0.99507279900000001</v>
+      </c>
+      <c r="D22">
+        <v>0.97708333300000005</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0.87323530199999999</v>
+      </c>
+      <c r="H22">
+        <v>0.97432724199999998</v>
+      </c>
+      <c r="I22">
+        <v>0.91383055800000002</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22">
+        <v>0.83730828099999999</v>
+      </c>
+      <c r="M22">
+        <v>0.99442323200000005</v>
+      </c>
+      <c r="N22">
+        <v>0.97187500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>0.80803351999999995</v>
+      </c>
+      <c r="C23">
+        <v>0.94799580100000003</v>
+      </c>
+      <c r="D23">
+        <v>0.91885336299999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>0.84407448100000004</v>
+      </c>
+      <c r="H23">
+        <v>0.99497774000000005</v>
+      </c>
+      <c r="I23">
+        <v>0.97708333300000005</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23">
+        <v>0.81013751000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.94684470499999995</v>
+      </c>
+      <c r="N23">
+        <v>0.92458654900000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0.91758192100000002</v>
+      </c>
+      <c r="C24">
+        <v>0.97778195499999998</v>
+      </c>
+      <c r="D24">
+        <v>0.90824261299999998</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>0.80995201100000003</v>
+      </c>
+      <c r="H24">
+        <v>0.94856528100000004</v>
+      </c>
+      <c r="I24">
+        <v>0.92326350599999996</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>0.916633064</v>
+      </c>
+      <c r="M24">
+        <v>0.97705513799999999</v>
+      </c>
+      <c r="N24">
+        <v>0.91601866300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0.84045076399999996</v>
+      </c>
+      <c r="C25">
+        <v>0.97062818299999998</v>
+      </c>
+      <c r="D25">
+        <v>0.93482309100000005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0.91593951900000004</v>
+      </c>
+      <c r="H25">
+        <v>0.975764411</v>
+      </c>
+      <c r="I25">
+        <v>0.90979782300000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <v>0.83939129700000004</v>
+      </c>
+      <c r="M25">
+        <v>0.96740237699999998</v>
+      </c>
+      <c r="N25">
+        <v>0.93854748600000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0.63321610699999997</v>
+      </c>
+      <c r="C26">
+        <v>0.84240691499999998</v>
+      </c>
+      <c r="D26">
+        <v>0.70218417899999996</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>0.838066003</v>
+      </c>
+      <c r="H26">
+        <v>0.96899830200000003</v>
+      </c>
+      <c r="I26">
+        <v>0.93296089400000004</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>0.63118898800000001</v>
+      </c>
+      <c r="M26">
+        <v>0.84158899600000003</v>
+      </c>
+      <c r="N26">
+        <v>0.70985832299999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0.49705191900000001</v>
+      </c>
+      <c r="C27">
+        <v>0.76982932299999995</v>
+      </c>
+      <c r="D27">
+        <v>0.77641025600000002</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>0.64810323400000003</v>
+      </c>
+      <c r="H27">
+        <v>0.84837478600000005</v>
+      </c>
+      <c r="I27">
+        <v>0.71487603300000002</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <v>0.50296281700000001</v>
+      </c>
+      <c r="M27">
+        <v>0.77686450699999998</v>
+      </c>
+      <c r="N27">
+        <v>0.78427350399999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0.37088250299999997</v>
+      </c>
+      <c r="C28">
+        <v>0.66181559999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.707340788</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>0.50580258099999997</v>
+      </c>
+      <c r="H28">
+        <v>0.77513441599999999</v>
+      </c>
+      <c r="I28">
+        <v>0.78222222200000002</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <v>0.38131083399999999</v>
+      </c>
+      <c r="M28">
+        <v>0.66813611299999998</v>
+      </c>
+      <c r="N28">
+        <v>0.71317452599999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>0.75553156899999996</v>
+      </c>
+      <c r="C29">
+        <v>0.89989648</v>
+      </c>
+      <c r="D29">
+        <v>0.82408541899999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29">
+        <v>0.36730625</v>
+      </c>
+      <c r="H29">
+        <v>0.66383457400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.70879922200000001</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29">
+        <v>0.74630237200000005</v>
+      </c>
+      <c r="M29">
+        <v>0.89477097800000005</v>
+      </c>
+      <c r="N29">
+        <v>0.82548573400000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>0.59274638899999998</v>
+      </c>
+      <c r="C30">
+        <v>0.80248877600000001</v>
+      </c>
+      <c r="D30">
+        <v>0.60978450799999995</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>0.74927695100000002</v>
+      </c>
+      <c r="H30">
+        <v>0.89646067900000004</v>
+      </c>
+      <c r="I30">
+        <v>0.82513565600000005</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30">
+        <v>0.60818861300000004</v>
+      </c>
+      <c r="M30">
+        <v>0.80950613400000004</v>
+      </c>
+      <c r="N30">
+        <v>0.61560862000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>0.592438307</v>
+      </c>
+      <c r="C31">
+        <v>0.81575246099999998</v>
+      </c>
+      <c r="D31">
+        <v>0.76136363600000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>0.59269347699999997</v>
+      </c>
+      <c r="H31">
+        <v>0.80160769700000001</v>
+      </c>
+      <c r="I31">
+        <v>0.59988351799999995</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31">
+        <v>0.57955329600000005</v>
+      </c>
+      <c r="M31">
+        <v>0.79606188499999997</v>
+      </c>
+      <c r="N31">
+        <v>0.76136363600000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>0.78195438299999998</v>
+      </c>
+      <c r="C32">
+        <v>0.92205723299999998</v>
+      </c>
+      <c r="D32">
+        <v>0.84876285799999995</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>0.57704237199999997</v>
+      </c>
+      <c r="H32">
+        <v>0.80731364299999997</v>
+      </c>
+      <c r="I32">
+        <v>0.77272727299999999</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32">
+        <v>0.77838851899999995</v>
+      </c>
+      <c r="M32">
+        <v>0.92090562499999995</v>
+      </c>
+      <c r="N32">
+        <v>0.84709480100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>0.63711498200000005</v>
+      </c>
+      <c r="C33">
+        <v>0.92494398799999999</v>
+      </c>
+      <c r="D33">
+        <v>0.95433789999999996</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>0.77145967800000004</v>
+      </c>
+      <c r="H33">
+        <v>0.916514049</v>
+      </c>
+      <c r="I33">
+        <v>0.83152627199999996</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33">
+        <v>0.64941263199999999</v>
+      </c>
+      <c r="M33">
+        <v>0.93577296499999996</v>
+      </c>
+      <c r="N33">
+        <v>0.94977168899999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>0.78338887099999999</v>
+      </c>
+      <c r="C34">
+        <v>0.89478364099999996</v>
+      </c>
+      <c r="D34">
+        <v>0.71594202900000004</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34">
+        <v>0.65618433300000001</v>
+      </c>
+      <c r="H34">
+        <v>0.92531740100000004</v>
+      </c>
+      <c r="I34">
+        <v>0.95433789999999996</v>
+      </c>
+      <c r="K34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34">
+        <v>0.78147423299999996</v>
+      </c>
+      <c r="M34">
+        <v>0.89326841099999998</v>
+      </c>
+      <c r="N34">
+        <v>0.725428195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>0.81521885599999999</v>
+      </c>
+      <c r="C35">
+        <v>0.93002006800000003</v>
+      </c>
+      <c r="D35">
+        <v>0.88043282199999995</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>0.78598945099999995</v>
+      </c>
+      <c r="H35">
+        <v>0.89388102400000002</v>
+      </c>
+      <c r="I35">
+        <v>0.72700922300000004</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35">
+        <v>0.81515252000000005</v>
+      </c>
+      <c r="M35">
+        <v>0.92921949000000004</v>
+      </c>
+      <c r="N35">
+        <v>0.87718665500000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>0.57103200300000001</v>
+      </c>
+      <c r="C36">
+        <v>0.79385964899999995</v>
+      </c>
+      <c r="D36">
+        <v>0.54878048800000001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36">
+        <v>0.81212703600000002</v>
+      </c>
+      <c r="H36">
+        <v>0.92761815599999997</v>
+      </c>
+      <c r="I36">
+        <v>0.87754734000000001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <v>0.58536023100000001</v>
+      </c>
+      <c r="M36">
+        <v>0.77631578899999998</v>
+      </c>
+      <c r="N36">
+        <v>0.58536585399999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0.82540310699999997</v>
+      </c>
+      <c r="C37">
+        <v>0.95096621400000003</v>
+      </c>
+      <c r="D37">
+        <v>0.95087719299999995</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37">
+        <v>0.56632262200000005</v>
+      </c>
+      <c r="H37">
+        <v>0.77192982499999996</v>
+      </c>
+      <c r="I37">
+        <v>0.60975609799999997</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37">
+        <v>0.82243573299999995</v>
+      </c>
+      <c r="M37">
+        <v>0.95301933100000003</v>
+      </c>
+      <c r="N37">
+        <v>0.95048732899999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>0.75908708899999999</v>
+      </c>
+      <c r="C38">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38">
+        <v>0.82350093700000004</v>
+      </c>
+      <c r="H38">
+        <v>0.95270026600000002</v>
+      </c>
+      <c r="I38">
+        <v>0.94892787499999998</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38">
+        <v>0.72322419800000004</v>
+      </c>
+      <c r="M38">
+        <v>0.87037036999999995</v>
+      </c>
+      <c r="N38">
+        <v>0.73333333300000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>0.70462987899999996</v>
+      </c>
+      <c r="C39">
+        <v>0.93781743699999998</v>
+      </c>
+      <c r="D39">
+        <v>0.91631084500000004</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>0.76588337699999998</v>
+      </c>
+      <c r="H39">
+        <v>0.87037036999999995</v>
+      </c>
+      <c r="I39">
+        <v>0.8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39">
+        <v>0.70740435499999998</v>
+      </c>
+      <c r="M39">
+        <v>0.93524668300000002</v>
+      </c>
+      <c r="N39">
+        <v>0.92655849700000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>0.68226582999999996</v>
+      </c>
+      <c r="C40">
+        <v>0.88147347200000004</v>
+      </c>
+      <c r="D40">
+        <v>0.61614059399999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>0.70383959500000004</v>
+      </c>
+      <c r="H40">
+        <v>0.93598899800000002</v>
+      </c>
+      <c r="I40">
+        <v>0.92912041000000001</v>
+      </c>
+      <c r="K40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40">
+        <v>0.68188076200000003</v>
+      </c>
+      <c r="M40">
+        <v>0.87922036400000003</v>
+      </c>
+      <c r="N40">
+        <v>0.62631518100000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0.58244119500000002</v>
+      </c>
+      <c r="C41">
+        <v>0.84710775900000002</v>
+      </c>
+      <c r="D41">
+        <v>0.65006331799999995</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>0.70431567100000003</v>
+      </c>
+      <c r="H41">
+        <v>0.890185491</v>
+      </c>
+      <c r="I41">
+        <v>0.66134813299999995</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>0.581131218</v>
+      </c>
+      <c r="M41">
+        <v>0.844242143</v>
+      </c>
+      <c r="N41">
+        <v>0.65048543700000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.75757048900000001</v>
+      </c>
+      <c r="C42">
+        <v>0.99007451000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.90980392200000004</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>0.55906018800000001</v>
+      </c>
+      <c r="H42">
+        <v>0.83466412300000004</v>
+      </c>
+      <c r="I42">
+        <v>0.65006331799999995</v>
+      </c>
+      <c r="K42" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>0.75318096599999995</v>
+      </c>
+      <c r="M42">
+        <v>0.98916719399999997</v>
+      </c>
+      <c r="N42">
+        <v>0.90980392200000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.54779056100000001</v>
+      </c>
+      <c r="C43">
+        <v>0.748235294</v>
+      </c>
+      <c r="D43">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>0.76388595999999997</v>
+      </c>
+      <c r="H43">
+        <v>0.98963459899999995</v>
+      </c>
+      <c r="I43">
+        <v>0.91568627499999999</v>
+      </c>
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43">
+        <v>0.56009732700000003</v>
+      </c>
+      <c r="M43">
+        <v>0.743529412</v>
+      </c>
+      <c r="N43">
+        <v>0.64285714299999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.48670993699999998</v>
+      </c>
+      <c r="C44">
+        <v>0.73812583700000001</v>
+      </c>
+      <c r="D44">
+        <v>0.71260504199999997</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>0.55321986199999995</v>
+      </c>
+      <c r="H44">
+        <v>0.75058823500000005</v>
+      </c>
+      <c r="I44">
+        <v>0.61904761900000005</v>
+      </c>
+      <c r="K44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44">
+        <v>0.50698932600000002</v>
+      </c>
+      <c r="M44">
+        <v>0.74535475200000001</v>
+      </c>
+      <c r="N44">
+        <v>0.71428571399999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>0.74264841699999995</v>
+      </c>
+      <c r="C45">
+        <v>0.91335937700000003</v>
+      </c>
+      <c r="D45">
+        <v>0.77638191000000001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <v>0.54011979700000001</v>
+      </c>
+      <c r="H45">
+        <v>0.764230254</v>
+      </c>
+      <c r="I45">
+        <v>0.71260504199999997</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>0.73916340700000005</v>
+      </c>
+      <c r="M45">
+        <v>0.91231106799999995</v>
+      </c>
+      <c r="N45">
+        <v>0.75675251300000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>0.57273074499999999</v>
+      </c>
+      <c r="C46">
+        <v>0.79919354799999998</v>
+      </c>
+      <c r="D46">
+        <v>0.77439024400000001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>0.73815852199999998</v>
+      </c>
+      <c r="H46">
+        <v>0.91328810800000004</v>
+      </c>
+      <c r="I46">
+        <v>0.75895100500000001</v>
+      </c>
+      <c r="K46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46">
+        <v>0.58977077700000002</v>
+      </c>
+      <c r="M46">
+        <v>0.81391128999999995</v>
+      </c>
+      <c r="N46">
+        <v>0.76829268299999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>0.73513087700000002</v>
+      </c>
+      <c r="C47">
+        <v>0.91091566700000004</v>
+      </c>
+      <c r="D47">
+        <v>0.66191155499999998</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>0.590569079</v>
+      </c>
+      <c r="H47">
+        <v>0.82016129000000004</v>
+      </c>
+      <c r="I47">
+        <v>0.78658536599999995</v>
+      </c>
+      <c r="K47" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47">
+        <v>0.74260606799999995</v>
+      </c>
+      <c r="M47">
+        <v>0.911556798</v>
+      </c>
+      <c r="N47">
+        <v>0.66333808800000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.58118632800000003</v>
+      </c>
+      <c r="C48">
+        <v>0.91334180399999998</v>
+      </c>
+      <c r="D48">
+        <v>0.87259615400000001</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48">
+        <v>0.74042313100000001</v>
+      </c>
+      <c r="H48">
+        <v>0.912354102</v>
+      </c>
+      <c r="I48">
+        <v>0.68330955800000004</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48">
+        <v>0.56959004000000002</v>
+      </c>
+      <c r="M48">
+        <v>0.90752505999999999</v>
+      </c>
+      <c r="N48">
+        <v>0.86538461499999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>0.80883842100000003</v>
+      </c>
+      <c r="C49">
+        <v>0.93779955100000001</v>
+      </c>
+      <c r="D49">
+        <v>0.81962681400000004</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49">
+        <v>0.58465080899999999</v>
+      </c>
+      <c r="H49">
+        <v>0.91884794599999997</v>
+      </c>
+      <c r="I49">
+        <v>0.87980769199999997</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49">
+        <v>0.81595603800000005</v>
+      </c>
+      <c r="M49">
+        <v>0.94007984700000002</v>
+      </c>
+      <c r="N49">
+        <v>0.82999308900000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>0.16835625300000001</v>
+      </c>
+      <c r="C50">
+        <v>0.94275161600000001</v>
+      </c>
+      <c r="D50">
+        <v>0.85439560400000003</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50">
+        <v>0.825436057</v>
+      </c>
+      <c r="H50">
+        <v>0.94458608799999999</v>
+      </c>
+      <c r="I50">
+        <v>0.83413959900000001</v>
+      </c>
+      <c r="K50" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50">
+        <v>0.15566811799999999</v>
+      </c>
+      <c r="M50">
+        <v>0.94367497700000003</v>
+      </c>
+      <c r="N50">
+        <v>0.84340659299999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>0.67437721799999994</v>
+      </c>
+      <c r="C51">
+        <v>0.86660591899999995</v>
+      </c>
+      <c r="D51">
+        <v>0.771111671</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51">
+        <v>0.19017167400000001</v>
+      </c>
+      <c r="H51">
+        <v>0.95198522600000002</v>
+      </c>
+      <c r="I51">
+        <v>0.85989011000000004</v>
+      </c>
+      <c r="K51" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51">
+        <v>0.67462612399999999</v>
+      </c>
+      <c r="M51">
+        <v>0.86607281199999997</v>
+      </c>
+      <c r="N51">
+        <v>0.76657423700000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>0.304962236</v>
+      </c>
+      <c r="C52">
+        <v>0.64931523300000005</v>
+      </c>
+      <c r="D52">
+        <v>0.63608748500000001</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52">
+        <v>0.66383567499999996</v>
+      </c>
+      <c r="H52">
+        <v>0.86061429300000003</v>
+      </c>
+      <c r="I52">
+        <v>0.76556591900000004</v>
+      </c>
+      <c r="K52" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52">
+        <v>0.25878665499999998</v>
+      </c>
+      <c r="M52">
+        <v>0.63017790500000004</v>
+      </c>
+      <c r="N52">
+        <v>0.63608748500000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>0.68623859300000001</v>
+      </c>
+      <c r="C53">
+        <v>0.80555555599999995</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53">
+        <v>0.26548037800000002</v>
+      </c>
+      <c r="H53">
+        <v>0.63130823000000003</v>
+      </c>
+      <c r="I53">
+        <v>0.63588497399999999</v>
+      </c>
+      <c r="K53" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53">
+        <v>0.66944125200000004</v>
+      </c>
+      <c r="M53">
+        <v>0.79444444400000003</v>
+      </c>
+      <c r="N53">
+        <v>0.47826087</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>0.78060661799999997</v>
+      </c>
+      <c r="C54">
+        <v>0.91142736700000004</v>
+      </c>
+      <c r="D54">
+        <v>0.81267067199999998</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>0.69462877099999998</v>
+      </c>
+      <c r="H54">
+        <v>0.81666666700000001</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>0.77988673600000002</v>
+      </c>
+      <c r="M54">
+        <v>0.91109448999999998</v>
+      </c>
+      <c r="N54">
+        <v>0.81075914800000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>0.860061725</v>
+      </c>
+      <c r="C55">
+        <v>0.97636544199999997</v>
+      </c>
+      <c r="D55">
+        <v>0.95422535200000003</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>0.78059945600000002</v>
+      </c>
+      <c r="H55">
+        <v>0.91071071800000003</v>
+      </c>
+      <c r="I55">
+        <v>0.81403604600000001</v>
+      </c>
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55">
+        <v>0.860556557</v>
+      </c>
+      <c r="M55">
+        <v>0.97576961299999998</v>
+      </c>
+      <c r="N55">
+        <v>0.95422535200000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>0.54807529399999999</v>
+      </c>
+      <c r="C56">
+        <v>0.903954802</v>
+      </c>
+      <c r="D56">
+        <v>0.86764705900000005</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56">
+        <v>0.862868725</v>
+      </c>
+      <c r="H56">
+        <v>0.97894736800000004</v>
+      </c>
+      <c r="I56">
+        <v>0.95774647899999998</v>
+      </c>
+      <c r="K56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56">
+        <v>0.53923364200000001</v>
+      </c>
+      <c r="M56">
+        <v>0.90583804099999998</v>
+      </c>
+      <c r="N56">
+        <v>0.85294117599999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>0.87462351100000002</v>
+      </c>
+      <c r="C57">
+        <v>0.97485845699999996</v>
+      </c>
+      <c r="D57">
+        <v>0.90522243700000005</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57">
+        <v>0.512984094</v>
+      </c>
+      <c r="H57">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="I57">
+        <v>0.82352941199999996</v>
+      </c>
+      <c r="K57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57">
+        <v>0.87296718200000001</v>
+      </c>
+      <c r="M57">
+        <v>0.97583156400000004</v>
+      </c>
+      <c r="N57">
+        <v>0.89555125700000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>0.79791609100000005</v>
+      </c>
+      <c r="C58">
+        <v>0.953846427</v>
+      </c>
+      <c r="D58">
+        <v>0.87262569800000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58">
+        <v>0.87337056999999996</v>
+      </c>
+      <c r="H58">
+        <v>0.97407997199999996</v>
+      </c>
+      <c r="I58">
+        <v>0.90328820099999996</v>
+      </c>
+      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58">
+        <v>0.79163240099999999</v>
+      </c>
+      <c r="M58">
+        <v>0.94895030899999999</v>
+      </c>
+      <c r="N58">
+        <v>0.87039106099999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>0.81724276399999995</v>
+      </c>
+      <c r="C59">
+        <v>0.94697628099999998</v>
+      </c>
+      <c r="D59">
+        <v>0.71772519700000004</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59">
+        <v>0.79112445799999997</v>
+      </c>
+      <c r="H59">
+        <v>0.95070811700000002</v>
+      </c>
+      <c r="I59">
+        <v>0.86759776499999997</v>
+      </c>
+      <c r="K59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59">
+        <v>0.81913943099999997</v>
+      </c>
+      <c r="M59">
+        <v>0.94590247100000002</v>
+      </c>
+      <c r="N59">
+        <v>0.72914072200000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>0.73692107699999998</v>
+      </c>
+      <c r="C60">
+        <v>0.91057614499999995</v>
+      </c>
+      <c r="D60">
+        <v>0.75325884499999995</v>
+      </c>
+      <c r="F60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60">
+        <v>0.81685525400000003</v>
+      </c>
+      <c r="H60">
+        <v>0.94728130499999996</v>
+      </c>
+      <c r="I60">
+        <v>0.71274387699999997</v>
+      </c>
+      <c r="K60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L60">
+        <v>0.74337626000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.91388574199999995</v>
+      </c>
+      <c r="N60">
+        <v>0.75418994399999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>0.50815021699999996</v>
+      </c>
+      <c r="C61">
+        <v>0.83018867900000004</v>
+      </c>
+      <c r="D61">
+        <v>0.33898305099999998</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61">
+        <v>0.74560932899999999</v>
+      </c>
+      <c r="H61">
+        <v>0.91063683399999995</v>
+      </c>
+      <c r="I61">
+        <v>0.76629422700000005</v>
+      </c>
+      <c r="K61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61">
+        <v>0.484798334</v>
+      </c>
+      <c r="M61">
+        <v>0.83018867900000004</v>
+      </c>
+      <c r="N61">
+        <v>0.372881356</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>0.72831776699999995</v>
+      </c>
+      <c r="C62">
+        <v>0.88139534900000005</v>
+      </c>
+      <c r="D62">
+        <v>0.78902953600000003</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62">
+        <v>0.45490792600000002</v>
+      </c>
+      <c r="H62">
+        <v>0.79874213800000005</v>
+      </c>
+      <c r="I62">
+        <v>0.32203389799999999</v>
+      </c>
+      <c r="K62" t="s">
+        <v>68</v>
+      </c>
+      <c r="L62">
+        <v>0.730612555</v>
+      </c>
+      <c r="M62">
+        <v>0.88515205699999999</v>
+      </c>
+      <c r="N62">
+        <v>0.80590717300000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>0.57585316399999997</v>
+      </c>
+      <c r="C63">
+        <v>0.75</v>
+      </c>
+      <c r="D63">
+        <v>0.83333333300000001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63">
+        <v>0.74445270100000005</v>
+      </c>
+      <c r="H63">
+        <v>0.88998211100000002</v>
+      </c>
+      <c r="I63">
+        <v>0.81434599200000002</v>
+      </c>
+      <c r="K63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63">
+        <v>0.54263327900000002</v>
+      </c>
+      <c r="M63">
+        <v>0.75</v>
+      </c>
+      <c r="N63">
+        <v>0.83333333300000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>0.89612027500000002</v>
+      </c>
+      <c r="C64">
+        <v>0.97227239799999998</v>
+      </c>
+      <c r="D64">
+        <v>0.91948216000000005</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64">
+        <v>0.57561098600000005</v>
+      </c>
+      <c r="H64">
+        <v>0.75</v>
+      </c>
+      <c r="I64">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="K64" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>0.89912425200000001</v>
+      </c>
+      <c r="M64">
+        <v>0.97290064399999998</v>
+      </c>
+      <c r="N64">
+        <v>0.91853489099999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.89885356299999997</v>
+      </c>
+      <c r="C65">
+        <v>0.95308810499999996</v>
+      </c>
+      <c r="D65">
+        <v>0.87726723100000004</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>0.897396741</v>
+      </c>
+      <c r="H65">
+        <v>0.97278005499999998</v>
+      </c>
+      <c r="I65">
+        <v>0.92106094100000002</v>
+      </c>
+      <c r="K65" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65">
+        <v>0.89791192099999995</v>
+      </c>
+      <c r="M65">
+        <v>0.95300758699999999</v>
+      </c>
+      <c r="N65">
+        <v>0.87484885099999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.70670865299999996</v>
+      </c>
+      <c r="C66">
+        <v>0.856394883</v>
+      </c>
+      <c r="D66">
+        <v>0.653748412</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66">
+        <v>0.89720037100000005</v>
+      </c>
+      <c r="H66">
+        <v>0.95317163699999996</v>
+      </c>
+      <c r="I66">
+        <v>0.86517533300000005</v>
+      </c>
+      <c r="K66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66">
+        <v>0.67679601099999998</v>
+      </c>
+      <c r="M66">
+        <v>0.84238370100000004</v>
+      </c>
+      <c r="N66">
+        <v>0.63595933900000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.51502651899999996</v>
+      </c>
+      <c r="C67">
+        <v>0.92561431599999999</v>
+      </c>
+      <c r="D67">
+        <v>0.82395143500000001</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67">
+        <v>0.71268031099999996</v>
+      </c>
+      <c r="H67">
+        <v>0.85312786500000004</v>
+      </c>
+      <c r="I67">
+        <v>0.663278272</v>
+      </c>
+      <c r="K67" t="s">
+        <v>72</v>
+      </c>
+      <c r="L67">
+        <v>0.51081931300000005</v>
+      </c>
+      <c r="M67">
+        <v>0.92429705699999998</v>
+      </c>
+      <c r="N67">
+        <v>0.82339955799999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.664684618</v>
+      </c>
+      <c r="C68">
+        <v>0.94043632700000002</v>
+      </c>
+      <c r="D68">
+        <v>0.88221970599999999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68">
+        <v>0.51114876600000003</v>
+      </c>
+      <c r="H68">
+        <v>0.92506191699999996</v>
+      </c>
+      <c r="I68">
+        <v>0.81953642400000004</v>
+      </c>
+      <c r="K68" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68">
+        <v>0.65761486999999996</v>
+      </c>
+      <c r="M68">
+        <v>0.93603923600000005</v>
+      </c>
+      <c r="N68">
+        <v>0.89014722499999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.65762618299999998</v>
+      </c>
+      <c r="C69">
+        <v>0.89832399799999996</v>
+      </c>
+      <c r="D69">
+        <v>0.91209927599999996</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69">
+        <v>0.660208829</v>
+      </c>
+      <c r="H69">
+        <v>0.93756130599999998</v>
+      </c>
+      <c r="I69">
+        <v>0.87655719099999996</v>
+      </c>
+      <c r="K69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69">
+        <v>0.66098808799999997</v>
+      </c>
+      <c r="M69">
+        <v>0.89703745099999999</v>
+      </c>
+      <c r="N69">
+        <v>0.91072044100000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.59820264000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="D70">
+        <v>0.8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70">
+        <v>0.66930954799999998</v>
+      </c>
+      <c r="H70">
+        <v>0.902075026</v>
+      </c>
+      <c r="I70">
+        <v>0.91175456700000002</v>
+      </c>
+      <c r="K70" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70">
+        <v>0.60225179799999995</v>
+      </c>
+      <c r="M70">
+        <v>0.88888888899999996</v>
+      </c>
+      <c r="N70">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.77242556200000001</v>
+      </c>
+      <c r="C71">
+        <v>0.90974891800000002</v>
+      </c>
+      <c r="D71">
+        <v>0.82906976700000001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71">
+        <v>0.53661470600000005</v>
+      </c>
+      <c r="H71">
+        <v>0.91666666699999999</v>
+      </c>
+      <c r="I71">
+        <v>0.8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>76</v>
+      </c>
+      <c r="L71">
+        <v>0.77642535899999998</v>
+      </c>
+      <c r="M71">
+        <v>0.91138486900000004</v>
+      </c>
+      <c r="N71">
+        <v>0.82732558099999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.70912976000000005</v>
+      </c>
+      <c r="C72">
+        <v>0.89418604700000004</v>
+      </c>
+      <c r="D72">
+        <v>0.83790523699999997</v>
+      </c>
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72">
+        <v>0.78058211200000005</v>
+      </c>
+      <c r="H72">
+        <v>0.91327808700000002</v>
+      </c>
+      <c r="I72">
+        <v>0.82790697700000004</v>
+      </c>
+      <c r="K72" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72">
+        <v>0.71029595599999995</v>
+      </c>
+      <c r="M72">
+        <v>0.89598907800000005</v>
+      </c>
+      <c r="N72">
+        <v>0.84123025799999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>0.85263594835271905</v>
-      </c>
-      <c r="C15">
-        <v>0.94504452675490003</v>
-      </c>
-      <c r="D15">
-        <v>0.88168249660786902</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B73">
+        <v>0.85263594799999998</v>
+      </c>
+      <c r="C73">
+        <v>0.94504452699999997</v>
+      </c>
+      <c r="D73">
+        <v>0.88168249700000001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73">
+        <v>0.71086240700000003</v>
+      </c>
+      <c r="H73">
+        <v>0.896483382</v>
+      </c>
+      <c r="I73">
+        <v>0.84372402300000005</v>
+      </c>
+      <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
-        <v>0.85134389701479296</v>
-      </c>
-      <c r="H15">
-        <v>0.94534171317819604</v>
-      </c>
-      <c r="I15">
-        <v>0.88249660786974204</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L73">
+        <v>0.84895946200000005</v>
+      </c>
+      <c r="M73">
+        <v>0.94440477199999995</v>
+      </c>
+      <c r="N73">
+        <v>0.882225237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>0.71871245500000003</v>
+      </c>
+      <c r="C74">
+        <v>0.91071428600000004</v>
+      </c>
+      <c r="D74">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="F74" t="s">
         <v>12</v>
       </c>
-      <c r="L15">
-        <v>0.84895946171833103</v>
-      </c>
-      <c r="M15">
-        <v>0.94440477249964305</v>
-      </c>
-      <c r="N15">
-        <v>0.88222523744911796</v>
-      </c>
-    </row>
-    <row r="27" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G74">
+        <v>0.85134389700000002</v>
+      </c>
+      <c r="H74">
+        <v>0.94534171300000003</v>
+      </c>
+      <c r="I74">
+        <v>0.88249660799999996</v>
+      </c>
+      <c r="K74" t="s">
+        <v>78</v>
+      </c>
+      <c r="L74">
+        <v>0.69556818399999998</v>
+      </c>
+      <c r="M74">
+        <v>0.83928571399999996</v>
+      </c>
+      <c r="N74">
+        <v>0.66666666699999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>0.80202129600000005</v>
+      </c>
+      <c r="C75">
+        <v>0.99470899499999998</v>
+      </c>
+      <c r="D75">
+        <v>0.64705882400000003</v>
+      </c>
+      <c r="K75" t="s">
+        <v>79</v>
+      </c>
+      <c r="L75">
+        <v>0.81992009399999999</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0.58823529399999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>0.86930432599999996</v>
+      </c>
+      <c r="C76">
+        <v>0.96153624000000004</v>
+      </c>
+      <c r="D76">
+        <v>0.91582089600000005</v>
+      </c>
+      <c r="K76" t="s">
+        <v>80</v>
+      </c>
+      <c r="L76">
+        <v>0.87012579199999995</v>
+      </c>
+      <c r="M76">
+        <v>0.96198779300000004</v>
+      </c>
+      <c r="N76">
+        <v>0.92179104499999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>0.48914421400000002</v>
+      </c>
+      <c r="C77">
+        <v>0.65312046400000001</v>
+      </c>
+      <c r="D77">
+        <v>0.43939393900000001</v>
+      </c>
+      <c r="K77" t="s">
+        <v>81</v>
+      </c>
+      <c r="L77">
+        <v>0.49240661899999999</v>
+      </c>
+      <c r="M77">
+        <v>0.65602322199999996</v>
+      </c>
+      <c r="N77">
+        <v>0.45454545499999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>0.556319232</v>
+      </c>
+      <c r="C78">
+        <v>0.78690916200000005</v>
+      </c>
+      <c r="D78">
+        <v>0.66</v>
+      </c>
+      <c r="K78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78">
+        <v>0.55084093999999995</v>
+      </c>
+      <c r="M78">
+        <v>0.78369966899999999</v>
+      </c>
+      <c r="N78">
+        <v>0.65333333299999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>0.80618789899999999</v>
+      </c>
+      <c r="C79">
+        <v>0.85798816600000005</v>
+      </c>
+      <c r="D79">
+        <v>0.73076923100000002</v>
+      </c>
+      <c r="K79" t="s">
+        <v>83</v>
+      </c>
+      <c r="L79">
+        <v>0.81887138800000003</v>
+      </c>
+      <c r="M79">
+        <v>0.89940828399999995</v>
+      </c>
+      <c r="N79">
+        <v>0.69230769199999997</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A17:D30">
     <sortCondition ref="A17:A30"/>
